--- a/Instances/G5047534_NonStationary_b4_fe25_el_rk50_ll2_l40_HTrue_c10.xlsx
+++ b/Instances/G5047534_NonStationary_b4_fe25_el_rk50_ll2_l40_HTrue_c10.xlsx
@@ -489,7 +489,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -521,7 +521,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -986,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1004,7 +1004,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="n">
-        <v>9.796234130859375</v>
+        <v>11.78361002604167</v>
       </c>
       <c r="I2" t="n">
         <v>448</v>
@@ -1036,7 +1036,7 @@
         <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>4.661483764648438</v>
+        <v>3.750830078125</v>
       </c>
       <c r="I3" t="n">
         <v>496</v>
@@ -1050,7 +1050,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>5.963821411132812</v>
+        <v>6.890348307291666</v>
       </c>
       <c r="I4" t="n">
         <v>492</v>
@@ -1082,7 +1082,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>13.52607727050781</v>
+        <v>14.65509440104167</v>
       </c>
       <c r="I5" t="n">
         <v>444</v>
@@ -1114,7 +1114,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1532,16 +1532,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1567,16 +1567,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="C8" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D8" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E8" t="n">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1602,16 +1602,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C9" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D9" t="n">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="E9" t="n">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1637,16 +1637,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10" t="n">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E10" t="n">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1672,16 +1672,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="C11" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E11" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1707,16 +1707,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
+        <v>22</v>
+      </c>
+      <c r="D12" t="n">
         <v>36</v>
       </c>
-      <c r="D12" t="n">
-        <v>41</v>
-      </c>
       <c r="E12" t="n">
-        <v>65</v>
+        <v>199</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="C13" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D13" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E13" t="n">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C14" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E14" t="n">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C15" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D15" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E15" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1847,16 +1847,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C16" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E16" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1874,41 +1874,6 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>100</v>
-      </c>
-      <c r="C17" t="n">
-        <v>17</v>
-      </c>
-      <c r="D17" t="n">
-        <v>61</v>
-      </c>
-      <c r="E17" t="n">
-        <v>99</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1923,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2108,34 +2073,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2143,16 +2108,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>10.625</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>20.375</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2178,16 +2143,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10.5</v>
+        <v>24.75</v>
       </c>
       <c r="C8" t="n">
-        <v>4.625</v>
+        <v>8.25</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>14.0625</v>
       </c>
       <c r="E8" t="n">
-        <v>17.375</v>
+        <v>22.125</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2213,16 +2178,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>9.84375</v>
       </c>
       <c r="C9" t="n">
-        <v>7.3125</v>
+        <v>5.03125</v>
       </c>
       <c r="D9" t="n">
-        <v>5.4375</v>
+        <v>13.5625</v>
       </c>
       <c r="E9" t="n">
-        <v>25.3125</v>
+        <v>17.71875</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2248,16 +2213,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.25</v>
+        <v>21.796875</v>
       </c>
       <c r="C10" t="n">
-        <v>4.15625</v>
+        <v>5.15625</v>
       </c>
       <c r="D10" t="n">
-        <v>9.40625</v>
+        <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>24.28125</v>
+        <v>12.1875</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2283,16 +2248,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>16.640625</v>
+        <v>9.4453125</v>
       </c>
       <c r="C11" t="n">
-        <v>10.546875</v>
+        <v>7.75</v>
       </c>
       <c r="D11" t="n">
-        <v>8.203125</v>
+        <v>6.5390625</v>
       </c>
       <c r="E11" t="n">
-        <v>22.265625</v>
+        <v>23.9765625</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2318,16 +2283,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11.3828125</v>
+        <v>6.15234375</v>
       </c>
       <c r="C12" t="n">
-        <v>8.71875</v>
+        <v>5.4140625</v>
       </c>
       <c r="D12" t="n">
-        <v>9.9296875</v>
+        <v>8.859375</v>
       </c>
       <c r="E12" t="n">
-        <v>15.7421875</v>
+        <v>48.97265625</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -2353,16 +2318,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>17.2265625</v>
+        <v>28.029296875</v>
       </c>
       <c r="C13" t="n">
-        <v>9.84375</v>
+        <v>8.681640625</v>
       </c>
       <c r="D13" t="n">
-        <v>10.828125</v>
+        <v>14.138671875</v>
       </c>
       <c r="E13" t="n">
-        <v>27.80859375</v>
+        <v>20.091796875</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -2388,16 +2353,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>16.123046875</v>
+        <v>19.921875</v>
       </c>
       <c r="C14" t="n">
-        <v>7.193359375</v>
+        <v>0.99609375</v>
       </c>
       <c r="D14" t="n">
-        <v>7.44140625</v>
+        <v>5.9765625</v>
       </c>
       <c r="E14" t="n">
-        <v>33.982421875</v>
+        <v>19.1748046875</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -2423,16 +2388,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14.94140625</v>
+        <v>15.4697265625</v>
       </c>
       <c r="C15" t="n">
-        <v>11.953125</v>
+        <v>7.984375</v>
       </c>
       <c r="D15" t="n">
-        <v>9.7119140625</v>
+        <v>12.974609375</v>
       </c>
       <c r="E15" t="n">
-        <v>13.9453125</v>
+        <v>11.4775390625</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -2458,16 +2423,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>25.69970703125</v>
+        <v>30.719970703125</v>
       </c>
       <c r="C16" t="n">
-        <v>5.98828125</v>
+        <v>1.248779296875</v>
       </c>
       <c r="D16" t="n">
-        <v>11.22802734375</v>
+        <v>8.241943359375</v>
       </c>
       <c r="E16" t="n">
-        <v>10.978515625</v>
+        <v>23.726806640625</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -2485,41 +2450,6 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>24.9755859375</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4.245849609375</v>
-      </c>
-      <c r="D17" t="n">
-        <v>15.235107421875</v>
-      </c>
-      <c r="E17" t="n">
-        <v>24.725830078125</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2560,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2880</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2568,7 +2498,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6090</v>
+        <v>6180</v>
       </c>
     </row>
   </sheetData>
